--- a/prueba/copia.xlsx
+++ b/prueba/copia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\trabajo\segey\pruebas\backups-y-logs\logs_reservacion_ip\prueba\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDDE6F6-01B1-491B-BFD2-5CCE0F54635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="592">
   <si>
     <t>Scope</t>
   </si>
@@ -51,9 +57,6 @@
     <t>Centro de datos - Manuel Chan</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.4</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
     <t>Laserjet P3015 / NOMINAS Y TECNOLOGIAS</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.5</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
     <t>Laserjet P3015 / NOMINA Y TECNOLOGIA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.7</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>LASERJET P4515 / NOMINA Y TECNOLOGIA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.11</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>MP 4054 /NOMINAS Y TECNOLOGIAS</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.8</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>MP 5054 / NOMINA Y TECNOLOGIA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.9</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>MP 4054 / NOMINA Y TECNOLOGIA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.13</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>LASERJET 400 COLOR / NOMINAS Y TECNOLOGIAS</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.14</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>LASERJET PRO 200 COLOR / NOMINAS Y TECNOLOGIAS</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.2</t>
   </si>
   <si>
@@ -183,10 +162,7 @@
     <t>NPIC7F4BE</t>
   </si>
   <si>
-    <t>LASERJET P4515 / NOMINAS Y TECNOLOGIAS / ÁREA DE CAPTURA (ALEJANDRO JIMENEZ)</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t>LASERJET P4515 / NOMINAS Y TECNOLOGIAS / ÃREA DE CAPTURA (ALEJANDRO JIMENEZ)</t>
   </si>
   <si>
     <t>10.178.0.3</t>
@@ -198,10 +174,7 @@
     <t>NPIBEF226</t>
   </si>
   <si>
-    <t>LaserJet M605 / NOMINAS Y TECNOLOGIAS /  SOPORTE TÉCNICO</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t>LaserJet M605 / NOMINAS Y TECNOLOGIAS /  SOPORTE TÃ‰CNICO</t>
   </si>
   <si>
     <t>10.178.0.23</t>
@@ -216,9 +189,6 @@
     <t>Laury Ignacia Lorenzo Morales / Subjefatura de Centro de Datos</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.24</t>
   </si>
   <si>
@@ -228,12 +198,6 @@
     <t>LauLM</t>
   </si>
   <si>
-    <t>Laury Ignacia Lorenzo Morales / Subjefatura de Centro de Datos</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.25</t>
   </si>
   <si>
@@ -243,10 +207,7 @@
     <t>SEI-CGTIC-CLD.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Christian Aaron Lopez Diaz / Cede inalámbrica Edificio II Sala 3A</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t>Christian Aaron Lopez Diaz / Cede inalÃ¡mbrica Edificio II Sala 3A</t>
   </si>
   <si>
     <t>10.178.0.12</t>
@@ -261,9 +222,6 @@
     <t>LASERJET P3015 / NOMINAS Y TECNOLOGIAS</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.6</t>
   </si>
   <si>
@@ -276,9 +234,6 @@
     <t>HP / PRODUCCION DE NOMINA ESTATAL / LUIS ESTRELLA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.254</t>
   </si>
   <si>
@@ -291,9 +246,6 @@
     <t>AP DE SISTEMATIZACION</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.253</t>
   </si>
   <si>
@@ -306,9 +258,6 @@
     <t>AP DE PAGADURIA</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.53</t>
   </si>
   <si>
@@ -318,12 +267,6 @@
     <t>strelecpe</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.87</t>
   </si>
   <si>
@@ -333,10 +276,7 @@
     <t>DESKTOP-R3IR06K</t>
   </si>
   <si>
-    <t>Karim Israel Barroso Cañetas /  / Subjefatura de Centro de Datos</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t>Karim Israel Barroso CaÃ±etas /  / Subjefatura de Centro de Datos</t>
   </si>
   <si>
     <t>10.178.0.93</t>
@@ -348,10 +288,7 @@
     <t>DESKTOP-TRHCH0M</t>
   </si>
   <si>
-    <t>Javier Castillo / Centro de datos / Jefe de departamento </t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t xml:space="preserve">Javier Castillo / Centro de datos / Jefe de departamento </t>
   </si>
   <si>
     <t>10.178.0.10</t>
@@ -363,10 +300,7 @@
     <t>C218-MFP</t>
   </si>
   <si>
-    <t>IMP-NOM-RICOH / Departamento de Infraestructura Tecnológica</t>
-  </si>
-  <si>
-    <t>10.178.0.0</t>
+    <t>IMP-NOM-RICOH / Departamento de Infraestructura TecnolÃ³gica</t>
   </si>
   <si>
     <t>10.178.0.250</t>
@@ -381,9 +315,6 @@
     <t>Modem Switch Servidores</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.143</t>
   </si>
   <si>
@@ -396,9 +327,6 @@
     <t>VMWare / Alpine Server / GitLab / karim.barroso</t>
   </si>
   <si>
-    <t>10.178.0.0</t>
-  </si>
-  <si>
     <t>10.178.0.16</t>
   </si>
   <si>
@@ -426,9 +354,6 @@
     <t>AP SITE DE FINANZAS</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.253</t>
   </si>
   <si>
@@ -438,10 +363,7 @@
     <t>AP_DirPrimarias</t>
   </si>
   <si>
-    <t>AP DIRECCION DE PRIMARIAS </t>
-  </si>
-  <si>
-    <t>10.178.1.0</t>
+    <t xml:space="preserve">AP DIRECCION DE PRIMARIAS </t>
   </si>
   <si>
     <t>10.178.1.252</t>
@@ -456,9 +378,6 @@
     <t>AP CPREVI</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.250</t>
   </si>
   <si>
@@ -471,9 +390,6 @@
     <t>AP IMC CSS</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.249</t>
   </si>
   <si>
@@ -486,9 +402,6 @@
     <t>AP DE ESTADISTICA</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.248</t>
   </si>
   <si>
@@ -501,9 +414,6 @@
     <t>AP DE CONTRATOS</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.251</t>
   </si>
   <si>
@@ -516,9 +426,6 @@
     <t>Direccion Administrativa</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.20</t>
   </si>
   <si>
@@ -531,9 +438,6 @@
     <t>Camaras de videovigilancia</t>
   </si>
   <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.21</t>
   </si>
   <si>
@@ -543,12 +447,6 @@
     <t>CAM - 21</t>
   </si>
   <si>
-    <t>Camaras de videovigilancia</t>
-  </si>
-  <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.22</t>
   </si>
   <si>
@@ -558,12 +456,6 @@
     <t>CAM - 22</t>
   </si>
   <si>
-    <t>Camaras de videovigilancia</t>
-  </si>
-  <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.23</t>
   </si>
   <si>
@@ -573,12 +465,6 @@
     <t>CAM - 23</t>
   </si>
   <si>
-    <t>Camaras de videovigilancia</t>
-  </si>
-  <si>
-    <t>10.178.1.0</t>
-  </si>
-  <si>
     <t>10.178.1.24</t>
   </si>
   <si>
@@ -588,9 +474,6 @@
     <t>CAM - 24</t>
   </si>
   <si>
-    <t>Camaras de videovigilancia</t>
-  </si>
-  <si>
     <t>10.178.2.0</t>
   </si>
   <si>
@@ -606,9 +489,6 @@
     <t>MP2553 / PLANEACION</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.6</t>
   </si>
   <si>
@@ -621,9 +501,6 @@
     <t>NC-9200H / PLANEACION</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.7</t>
   </si>
   <si>
@@ -636,9 +513,6 @@
     <t>RICOH / PLANEACION / ESTUDIOS Y PROYECTOS</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.8</t>
   </si>
   <si>
@@ -651,9 +525,6 @@
     <t>P2055DN / PLANEACION / OBRAS</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.10</t>
   </si>
   <si>
@@ -666,9 +537,6 @@
     <t>MP 3053 / PLANEACIN / DIRECCION</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.23</t>
   </si>
   <si>
@@ -681,9 +549,6 @@
     <t>Cathy Rosalba Tec Matos / Cathy Rosalba Tec Matos</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.9</t>
   </si>
   <si>
@@ -696,9 +561,6 @@
     <t>LASERJET PRO MFP M428FDW / PLANEACIOIN /  DIRECCION</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.11</t>
   </si>
   <si>
@@ -711,9 +573,6 @@
     <t>FS-1035MFP / RECURSOS HUMANOS / DIRECCION</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.12</t>
   </si>
   <si>
@@ -723,10 +582,7 @@
     <t>NPI3F94FF</t>
   </si>
   <si>
-    <t>HP LASERJET MFP M477fdw NPI3F94FF/ PLANEACIÓN</t>
-  </si>
-  <si>
-    <t>10.178.2.0</t>
+    <t>HP LASERJET MFP M477fdw NPI3F94FF/ PLANEACIÃ“N, EVALUACIÃ“N Y SEGUIMIENTO (Julio Varela)</t>
   </si>
   <si>
     <t>10.178.2.13</t>
@@ -738,10 +594,7 @@
     <t>RNP00267380FE4D</t>
   </si>
   <si>
-    <t>IMPRESORA / DIRECCION PLANEACION / </t>
-  </si>
-  <si>
-    <t>10.178.2.0</t>
+    <t xml:space="preserve">IMPRESORA / DIRECCION PLANEACION / </t>
   </si>
   <si>
     <t>10.178.2.14</t>
@@ -756,9 +609,6 @@
     <t>datos no enviados</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.15</t>
   </si>
   <si>
@@ -771,9 +621,6 @@
     <t>Falta datos area planeacion</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.2</t>
   </si>
   <si>
@@ -786,9 +633,6 @@
     <t>RICOH MP 301  /  CONTOROL INTERNO</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.17</t>
   </si>
   <si>
@@ -801,9 +645,6 @@
     <t>soporte</t>
   </si>
   <si>
-    <t>10.178.2.0</t>
-  </si>
-  <si>
     <t>10.178.2.3</t>
   </si>
   <si>
@@ -813,10 +654,7 @@
     <t>XRX9C934EA7A68F</t>
   </si>
   <si>
-    <t>IMPRESORA	COMUNICACIÓN SOCIAL 	Xerox	C8035</t>
-  </si>
-  <si>
-    <t>10.178.2.0</t>
+    <t>IMPRESORA	COMUNICACIÃ“N SOCIAL 	Xerox	C8035</t>
   </si>
   <si>
     <t>10.178.2.16</t>
@@ -846,9 +684,6 @@
     <t>MP 5054 / ESTADISTICA / ESTADISTICA</t>
   </si>
   <si>
-    <t>10.178.3.0</t>
-  </si>
-  <si>
     <t>10.178.3.23</t>
   </si>
   <si>
@@ -858,10 +693,7 @@
     <t>DESKTOP-GCLS8QT</t>
   </si>
   <si>
-    <t>Miguel Jesus Cauich Osalde /  Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Miguel Jesus Cauich Osalde /  EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.24</t>
@@ -873,10 +705,7 @@
     <t>SE-ESTA-NCG.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Noemi del Carmen Carrillo Gonzalez / Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Noemi del Carmen Carrillo Gonzalez / EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.25</t>
@@ -888,10 +717,7 @@
     <t>SE-PLANEA-JPC.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Alfonso Adrian Segovia Martin / Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Alfonso Adrian Segovia Martin / EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.27</t>
@@ -903,10 +729,7 @@
     <t>SE-SISTEMAT-JCG.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Jorge Cebada Gutierrez / Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Jorge Cebada Gutierrez / EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.28</t>
@@ -918,10 +741,7 @@
     <t>DESKTOP-V204L2T</t>
   </si>
   <si>
-    <t>Jacob Parra Cetina / Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Jacob Parra Cetina / EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.29</t>
@@ -933,10 +753,7 @@
     <t>DESKTOP-EGPCRJI</t>
   </si>
   <si>
-    <t>Jorge Adrian Canche Herrera / Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Jorge Adrian Canche Herrera / EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.30</t>
@@ -951,9 +768,6 @@
     <t>FERNANDO. CANDILA / ESTADISTICA</t>
   </si>
   <si>
-    <t>10.178.3.0</t>
-  </si>
-  <si>
     <t>10.178.3.4</t>
   </si>
   <si>
@@ -966,9 +780,6 @@
     <t>Estadistica</t>
   </si>
   <si>
-    <t>10.178.3.0</t>
-  </si>
-  <si>
     <t>10.178.3.96</t>
   </si>
   <si>
@@ -978,10 +789,7 @@
     <t>SE-DESLAP-JBC.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Jose Francisco Briseño Coronado /  Estadística</t>
-  </si>
-  <si>
-    <t>10.178.3.0</t>
+    <t>Jose Francisco BriseÃ±o Coronado /  EstadÃ­stica</t>
   </si>
   <si>
     <t>10.178.3.3</t>
@@ -1011,9 +819,6 @@
     <t>MP 3053 / PAGADURIA / NOMINA FEDERAL (GABRIELA CAMPOS)</t>
   </si>
   <si>
-    <t>10.178.4.0</t>
-  </si>
-  <si>
     <t>10.178.4.6</t>
   </si>
   <si>
@@ -1026,9 +831,6 @@
     <t>MP 5054 / PAGADURIA / RECURSOS MATERIALES (LIC LISSETH)</t>
   </si>
   <si>
-    <t>10.178.4.0</t>
-  </si>
-  <si>
     <t>10.178.4.7</t>
   </si>
   <si>
@@ -1041,9 +843,6 @@
     <t>AFICIO MP 2851 / PAGADURIA / PAGADURIA (MARTA GONGORA)</t>
   </si>
   <si>
-    <t>10.178.4.0</t>
-  </si>
-  <si>
     <t>10.178.4.8</t>
   </si>
   <si>
@@ -1056,9 +855,6 @@
     <t>P3015 / PAGADURIA / OFICINA DE VALIDACION NOMINA ESTATAL  (CARLOS POOT)</t>
   </si>
   <si>
-    <t>10.178.4.0</t>
-  </si>
-  <si>
     <t>10.178.4.4</t>
   </si>
   <si>
@@ -1071,9 +867,6 @@
     <t>MP 4054 / PAGADURIA / RECURSOS MATERIALES (LIC LISSETH)</t>
   </si>
   <si>
-    <t>10.178.4.0</t>
-  </si>
-  <si>
     <t>10.178.4.3</t>
   </si>
   <si>
@@ -1083,10 +876,7 @@
     <t>IMP-RM-4</t>
   </si>
   <si>
-    <t>M2040DN / PAGADURIA / RECURSOS MATERIALES Ruben Nuñez</t>
-  </si>
-  <si>
-    <t>10.178.4.0</t>
+    <t>M2040DN / PAGADURIA / RECURSOS MATERIALES Ruben NuÃ±ez</t>
   </si>
   <si>
     <t>10.178.4.5</t>
@@ -1116,9 +906,6 @@
     <t>Mp 3554 / COPNTRALORIA / Almacen de Consumo Ivan Paez</t>
   </si>
   <si>
-    <t>10.178.5.0</t>
-  </si>
-  <si>
     <t>10.178.5.3</t>
   </si>
   <si>
@@ -1131,9 +918,6 @@
     <t>MP 3555 / CONTRALORIA / CONTROL PATRIMONIAL (JORGE RODRIGUEZ)</t>
   </si>
   <si>
-    <t>10.178.5.0</t>
-  </si>
-  <si>
     <t>10.178.5.5</t>
   </si>
   <si>
@@ -1146,9 +930,6 @@
     <t>MP C45503 SP / ALMACEN / SERVICIOS GENERALES Cristian Novelo</t>
   </si>
   <si>
-    <t>10.178.5.0</t>
-  </si>
-  <si>
     <t>10.178.5.4</t>
   </si>
   <si>
@@ -1158,10 +939,7 @@
     <t>RNP002673F653DF</t>
   </si>
   <si>
-    <t>Ricoh mp 3055 / CONTRALORIA / CONTROL PATRIMONIAL (ÁREA DE ARCHIVO) JOAQUIN LOPEZ</t>
-  </si>
-  <si>
-    <t>10.178.5.0</t>
+    <t>Ricoh mp 3055 / CONTRALORIA / CONTROL PATRIMONIAL (ÃREA DE ARCHIVO) JOAQUIN LOPEZ</t>
   </si>
   <si>
     <t>10.178.5.6</t>
@@ -1173,7 +951,7 @@
     <t>RNP0026738DF31B</t>
   </si>
   <si>
-    <t>IMPRESORA/ SIN DATOS / </t>
+    <t xml:space="preserve">IMPRESORA/ SIN DATOS / </t>
   </si>
   <si>
     <t>10.178.6.0</t>
@@ -1188,10 +966,7 @@
     <t>RNP5838791FA5C5</t>
   </si>
   <si>
-    <t>MP4055 / ALMACEN / GRÁFICOS</t>
-  </si>
-  <si>
-    <t>10.178.6.0</t>
+    <t>MP4055 / ALMACEN / GRÃFICOS</t>
   </si>
   <si>
     <t>10.178.6.6</t>
@@ -1203,40 +978,22 @@
     <t>RICOH4054</t>
   </si>
   <si>
-    <t>MP 4054/ ALAMACEN / ASISTENCIA Y PREVISIÓN Edgar Mena</t>
-  </si>
-  <si>
-    <t>10.178.6.0</t>
+    <t>MP 4054/ ALAMACEN / ASISTENCIA Y PREVISIÃ“N Edgar Mena</t>
   </si>
   <si>
     <t>10.178.6.8</t>
   </si>
   <si>
-    <t>00-26-73-b0-fa-63</t>
-  </si>
-  <si>
     <t>GBOFCADCOPY</t>
   </si>
   <si>
     <t>IMP-ALMACEN-GRAFICOS</t>
   </si>
   <si>
-    <t>10.178.6.0</t>
-  </si>
-  <si>
     <t>10.178.6.2</t>
   </si>
   <si>
-    <t>9c-93-4e-a7-a6-8f</t>
-  </si>
-  <si>
-    <t>XRX9C934EA7A68F</t>
-  </si>
-  <si>
-    <t>IMPRESORA XEROX  / ALMACEN / GRÁFICOS</t>
-  </si>
-  <si>
-    <t>10.178.6.0</t>
+    <t>IMPRESORA XEROX  / ALMACEN / GRÃFICOS</t>
   </si>
   <si>
     <t>10.178.6.3</t>
@@ -1248,27 +1005,15 @@
     <t>RNP002673A67159</t>
   </si>
   <si>
-    <t>IMPRESORA / RICOH MP4054 / </t>
-  </si>
-  <si>
-    <t>10.178.6.0</t>
+    <t xml:space="preserve">IMPRESORA / RICOH MP4054 / </t>
   </si>
   <si>
     <t>10.178.6.9</t>
   </si>
   <si>
-    <t>00-26-73-d0-3b-c4</t>
-  </si>
-  <si>
-    <t>ZAR024MC3D03BC4</t>
-  </si>
-  <si>
     <t>MP 3053 / AREA DE GRAFICOS</t>
   </si>
   <si>
-    <t>10.178.6.0</t>
-  </si>
-  <si>
     <t>10.178.6.7</t>
   </si>
   <si>
@@ -1278,10 +1023,7 @@
     <t>US-SE-DIS-PT005</t>
   </si>
   <si>
-    <t>IMPRESORA / CONTROL VEHICULAR </t>
-  </si>
-  <si>
-    <t>10.178.6.0</t>
+    <t xml:space="preserve">IMPRESORA / CONTROL VEHICULAR </t>
   </si>
   <si>
     <t>10.178.6.5</t>
@@ -1293,7 +1035,7 @@
     <t>RNP583879474973</t>
   </si>
   <si>
-    <t>IMPRESORA / Asistencia y Previsión</t>
+    <t>IMPRESORA / Asistencia y PrevisiÃ³n</t>
   </si>
   <si>
     <t>10.178.7.0</t>
@@ -1311,9 +1053,6 @@
     <t>CASETA DE RECURSOS MATERIALES</t>
   </si>
   <si>
-    <t>10.178.7.0</t>
-  </si>
-  <si>
     <t>10.178.7.2</t>
   </si>
   <si>
@@ -1323,10 +1062,7 @@
     <t>LEC-GG-2</t>
   </si>
   <si>
-    <t>CASETA DE NÓMINA-SISTEMATIZACIÓN</t>
-  </si>
-  <si>
-    <t>10.178.7.0</t>
+    <t>CASETA DE NÃ“MINA-SISTEMATIZACIÃ“N</t>
   </si>
   <si>
     <t>10.178.7.25</t>
@@ -1341,9 +1077,6 @@
     <t>Lector de huella / edificio central / ZKTECO / UA860</t>
   </si>
   <si>
-    <t>10.178.7.0</t>
-  </si>
-  <si>
     <t>10.178.7.27</t>
   </si>
   <si>
@@ -1356,9 +1089,6 @@
     <t>Lector de huella / edificio central / ZKTECO / UA862</t>
   </si>
   <si>
-    <t>10.178.7.0</t>
-  </si>
-  <si>
     <t>10.178.7.26</t>
   </si>
   <si>
@@ -1371,9 +1101,6 @@
     <t>Lector de huella / edificio central / ZKTECO / UA861</t>
   </si>
   <si>
-    <t>10.178.7.0</t>
-  </si>
-  <si>
     <t>10.178.7.4</t>
   </si>
   <si>
@@ -1392,16 +1119,7 @@
     <t>10.178.8.2</t>
   </si>
   <si>
-    <t>a4-5d-36-17-63-5f</t>
-  </si>
-  <si>
-    <t>DESKTOP-GCLS8QT</t>
-  </si>
-  <si>
-    <t>Miguel </t>
-  </si>
-  <si>
-    <t>10.178.8.0</t>
+    <t xml:space="preserve">Miguel </t>
   </si>
   <si>
     <t>10.178.8.132</t>
@@ -1410,15 +1128,9 @@
     <t>48-d2-24-61-0f-ad</t>
   </si>
   <si>
-    <t>DESKTOP-GCLS8QT</t>
-  </si>
-  <si>
     <t>LAP TOP / MIGUEL CAHUICH / INALAMBRICA</t>
   </si>
   <si>
-    <t>10.178.8.0</t>
-  </si>
-  <si>
     <t>10.178.8.19</t>
   </si>
   <si>
@@ -1431,9 +1143,6 @@
     <t>IMPRESORA / SIN DATOS</t>
   </si>
   <si>
-    <t>10.178.8.0</t>
-  </si>
-  <si>
     <t>10.178.8.78</t>
   </si>
   <si>
@@ -1443,12 +1152,6 @@
     <t>SE-DESLAP-EEO.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>10.178.8.0</t>
-  </si>
-  <si>
     <t>10.178.8.33</t>
   </si>
   <si>
@@ -1473,10 +1176,7 @@
     <t>IMP-PRIM-HP-3</t>
   </si>
   <si>
-    <t>LASERJET P115 / PRIMARIAS / CONCILIACION BANCARIA (ATRÁS DE CAJEROS)</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
+    <t>LASERJET P115 / PRIMARIAS / CONCILIACION BANCARIA (ATRÃS DE CAJEROS)</t>
   </si>
   <si>
     <t>10.178.9.4</t>
@@ -1488,12 +1188,6 @@
     <t>NPI6AB6BF</t>
   </si>
   <si>
-    <t>LASERJET P115 / PRIMARIAS / CONCILIACION BANCARIA (ATRÁS DE CAJEROS)</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
-  </si>
-  <si>
     <t>10.178.9.6</t>
   </si>
   <si>
@@ -1503,10 +1197,7 @@
     <t>NPI23BAAE</t>
   </si>
   <si>
-    <t>HP LASERJET FFP M426DW / PRIMARIAS / DEPARTAMENTO DE GESTION DE INFORMACION</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
+    <t>HP LASERJET FFP M426DW / PRIMARIAS / DEPARTAMENTO DE GESTION DE INFORMACION, CAPACITACION Y ETICA (ATRÃS DE CAJEROS)</t>
   </si>
   <si>
     <t>10.178.9.8</t>
@@ -1521,9 +1212,6 @@
     <t>MP3053 / PRIMARIAS / COORDINACION DE ENLACE (LEONOR PENICHE)</t>
   </si>
   <si>
-    <t>10.178.9.0</t>
-  </si>
-  <si>
     <t>10.178.9.32</t>
   </si>
   <si>
@@ -1536,9 +1224,6 @@
     <t>EXT. 51305 \ ESTANCIA</t>
   </si>
   <si>
-    <t>10.178.9.0</t>
-  </si>
-  <si>
     <t>10.178.9.17</t>
   </si>
   <si>
@@ -1551,9 +1236,6 @@
     <t>BIZHUB 454E / PRIMARIAS / COORDINACION DE ARCHIVOS (SALIDA DIRECTORES)</t>
   </si>
   <si>
-    <t>10.178.9.0</t>
-  </si>
-  <si>
     <t>10.178.9.45</t>
   </si>
   <si>
@@ -1563,10 +1245,7 @@
     <t>SE-IMC-JCM.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t>Jose Azrael Cetina Medina (azrael.cetina@yucatan.gob.mx)</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
+    <t>Jose Azrael Cetina Medina &lt;azrael.cetina@yucatan.gob.mx&gt;</t>
   </si>
   <si>
     <t>10.178.9.16</t>
@@ -1581,9 +1260,6 @@
     <t>MP 2553 / PRIMARIAS / ADQUISICIONES</t>
   </si>
   <si>
-    <t>10.178.9.0</t>
-  </si>
-  <si>
     <t>10.178.9.2</t>
   </si>
   <si>
@@ -1593,10 +1269,7 @@
     <t>RNP0026738A0973</t>
   </si>
   <si>
-    <t>MP301SPF / PRIMARIAS / ARCHIVOS Y GLOSA (ATRÁS DE CAJEROS)</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
+    <t>MP301SPF / PRIMARIAS / ARCHIVOS Y GLOSA (ATRÃS DE CAJEROS)</t>
   </si>
   <si>
     <t>10.178.9.5</t>
@@ -1608,10 +1281,7 @@
     <t>NPI3D980A</t>
   </si>
   <si>
-    <t>HP LASERJET P2055DN / PRIMARIAS / PROYECTOS TRANSVERSALES (ATRÁS DE CAJEROS)</t>
-  </si>
-  <si>
-    <t>10.178.9.0</t>
+    <t>HP LASERJET P2055DN / PRIMARIAS / PROYECTOS TRANSVERSALES (ATRÃS DE CAJEROS)</t>
   </si>
   <si>
     <t>10.178.9.7</t>
@@ -1641,9 +1311,6 @@
     <t>MP 301 / FINANZAS / FINANZAS CONTABILIDAD</t>
   </si>
   <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.3</t>
   </si>
   <si>
@@ -1656,9 +1323,6 @@
     <t>MP 301 / FINANZAS /FINANZAS FISCALIZACION</t>
   </si>
   <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.4</t>
   </si>
   <si>
@@ -1671,9 +1335,6 @@
     <t>ECOSYS M2040DN / FINANZAS / FINANZAS TESORERIA</t>
   </si>
   <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.5</t>
   </si>
   <si>
@@ -1686,9 +1347,6 @@
     <t>MP 3053 / FINANZAS / RECURSOS FINANCIEROS</t>
   </si>
   <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.6</t>
   </si>
   <si>
@@ -1698,12 +1356,6 @@
     <t>RNP00267371619A</t>
   </si>
   <si>
-    <t>MP 3053 / FINANZAS / RECURSOS FINANCIEROS</t>
-  </si>
-  <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.8</t>
   </si>
   <si>
@@ -1716,9 +1368,6 @@
     <t>IMP-FIN-LASERJET-P2055DN</t>
   </si>
   <si>
-    <t>10.178.10.0</t>
-  </si>
-  <si>
     <t>10.178.10.9</t>
   </si>
   <si>
@@ -1728,10 +1377,7 @@
     <t>DVR8-4680RN</t>
   </si>
   <si>
-    <t>DVR8-4680RN-contraloria de partes </t>
-  </si>
-  <si>
-    <t>10.178.10.0</t>
+    <t xml:space="preserve">DVR8-4680RN-contraloria de partes </t>
   </si>
   <si>
     <t>10.178.10.11</t>
@@ -1743,10 +1389,7 @@
     <t>NPIEAED3B</t>
   </si>
   <si>
-    <t>IMP / DEPTO RECURSOS FINANCIEROS / SUBJEFATURA DE TESORERIA </t>
-  </si>
-  <si>
-    <t>10.178.10.0</t>
+    <t xml:space="preserve">IMP / DEPTO RECURSOS FINANCIEROS / SUBJEFATURA DE TESORERIA </t>
   </si>
   <si>
     <t>10.178.10.12</t>
@@ -1758,10 +1401,7 @@
     <t>RNP0026738B4D89</t>
   </si>
   <si>
-    <t> fin imp sub de recursos finan</t>
-  </si>
-  <si>
-    <t>10.178.10.0</t>
+    <t xml:space="preserve"> fin imp sub de recursos finan</t>
   </si>
   <si>
     <t>10.178.10.10</t>
@@ -1773,7 +1413,7 @@
     <t>IMPMERATCGP</t>
   </si>
   <si>
-    <t>ADMINISTRACIÓN Y FINANZAS - CONTABILIDAD</t>
+    <t>ADMINISTRACIÃ“N Y FINANZAS - CONTABILIDAD</t>
   </si>
   <si>
     <t>10.178.11.0</t>
@@ -1791,9 +1431,6 @@
     <t>P3015 / RECURSOS HUMANOS / RECURSOS HUMANOS</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.5</t>
   </si>
   <si>
@@ -1806,24 +1443,15 @@
     <t>MP 3554 / RECURSOS HUMANOS / RECURSOS HUMANOS CAMBIO DE ACTIVIDAD</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.6</t>
   </si>
   <si>
-    <t>00-26-73-99-47-0b</t>
-  </si>
-  <si>
     <t>IMP-RECHUM-RICOH-6</t>
   </si>
   <si>
     <t>SP 310 / RECURSOS HUMANOS/ RECURSOS HUMANOS PROGRAMA DE APOYO Y EVENTUAL</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.7</t>
   </si>
   <si>
@@ -1833,10 +1461,7 @@
     <t>ENDO12P</t>
   </si>
   <si>
-    <t>MP 3053 /  RECURSOS HUMANOS /DIRECCION </t>
-  </si>
-  <si>
-    <t>10.178.11.0</t>
+    <t xml:space="preserve">MP 3053 /  RECURSOS HUMANOS /DIRECCION </t>
   </si>
   <si>
     <t>10.178.11.9</t>
@@ -1848,10 +1473,7 @@
     <t>IMP-RECHUM-HP-9</t>
   </si>
   <si>
-    <t>LASERJET MFP M426DW / RECURSOS HUMANOS / SUBDIRECCION DE ADMINISTRACIÓN (CABLE)</t>
-  </si>
-  <si>
-    <t>10.178.11.0</t>
+    <t>LASERJET MFP M426DW / RECURSOS HUMANOS / SUBDIRECCION DE ADMINISTRACIÃ“N (CABLE)</t>
   </si>
   <si>
     <t>10.178.11.10</t>
@@ -1866,9 +1488,6 @@
     <t>LASERJET M475DN / RECURSOS HUMANOS / COORDINACION DE ATENCION A ESCUELAS NORMALES</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.11</t>
   </si>
   <si>
@@ -1881,9 +1500,6 @@
     <t>NC-8200H / RECURSOS HUMANOS / COORDINACION DE ATENCION A ESCUELAS NORMALES</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.23</t>
   </si>
   <si>
@@ -1893,10 +1509,7 @@
     <t>SER-RECHUM-MCC.gobierno1.yucatan.gob.mx</t>
   </si>
   <si>
-    <t> Martín Augusto Canché Canché / Departamento de Recursos Humanos</t>
-  </si>
-  <si>
-    <t>10.178.11.0</t>
+    <t>Â MartÃ­n Augusto CanchÃ© CanchÃ© / Departamento de Recursos Humanos</t>
   </si>
   <si>
     <t>10.178.11.12</t>
@@ -1911,9 +1524,6 @@
     <t>MP 2553 / FINANZAS / OFICIALIA DE PARTES</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.8</t>
   </si>
   <si>
@@ -1926,9 +1536,6 @@
     <t>DIRECCION DE ADMNISTRACION Y FINANZAS</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.13</t>
   </si>
   <si>
@@ -1941,9 +1548,6 @@
     <t>IMP / ADMINISTRACION Y FINANZAS - DIRECCION / BROTHER DCP-L3560CDW</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.3</t>
   </si>
   <si>
@@ -1956,9 +1560,6 @@
     <t>MX-M464 / SALA 3</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.14</t>
   </si>
   <si>
@@ -1971,9 +1572,6 @@
     <t>IMP / Recursos Humanos / Irving</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.2</t>
   </si>
   <si>
@@ -1986,9 +1584,6 @@
     <t>MP 2555 / RECURSOS HUMANOS / RECURSOS HUMANOS JEFATURA</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.15</t>
   </si>
   <si>
@@ -2001,9 +1596,6 @@
     <t>IMP / sin datos / Servicio: Felix Sosa</t>
   </si>
   <si>
-    <t>10.178.11.0</t>
-  </si>
-  <si>
     <t>10.178.11.16</t>
   </si>
   <si>
@@ -2013,7 +1605,7 @@
     <t>NPI2F2C5E</t>
   </si>
   <si>
-    <t>Recursos Humanos / Subjefatura de contratratos ADG </t>
+    <t xml:space="preserve">Recursos Humanos / Subjefatura de contratratos ADG </t>
   </si>
   <si>
     <t>10.178.12.0</t>
@@ -2028,10 +1620,7 @@
     <t>RNP0026737297D4</t>
   </si>
   <si>
-    <t>MP 2553 / DESPACHO / COORDINACION DE ARCHIVOS DE PERSONAL DE CONTRATO (ATRÁS DE AUDITORIO)</t>
-  </si>
-  <si>
-    <t>10.178.12.0</t>
+    <t>MP 2553 / DESPACHO / COORDINACION DE ARCHIVOS DE PERSONAL DE CONTRATO (ATRÃS DE AUDITORIO)</t>
   </si>
   <si>
     <t>10.178.12.4</t>
@@ -2043,10 +1632,7 @@
     <t>RNP00267343593D</t>
   </si>
   <si>
-    <t>AFICIO MP 2852 / DESPACHO / COORDINACION DE ARCHIVOS DE PERSONAL DE CONTRATO (ATRÁS DE AUDITORIO)</t>
-  </si>
-  <si>
-    <t>10.178.12.0</t>
+    <t>AFICIO MP 2852 / DESPACHO / COORDINACION DE ARCHIVOS DE PERSONAL DE CONTRATO (ATRÃS DE AUDITORIO)</t>
   </si>
   <si>
     <t>10.178.12.5</t>
@@ -2058,27 +1644,15 @@
     <t>RNP002673C1351D</t>
   </si>
   <si>
-    <t>MP C4504 / DESPACHO / DESPACHO RECEPCION </t>
-  </si>
-  <si>
-    <t>10.178.12.0</t>
+    <t xml:space="preserve">MP C4504 / DESPACHO / DESPACHO RECEPCION </t>
   </si>
   <si>
     <t>10.178.12.6</t>
   </si>
   <si>
-    <t>38-63-bb-d9-e9-4b</t>
-  </si>
-  <si>
-    <t>NPID9E94B</t>
-  </si>
-  <si>
     <t>LASSER JET PRO M521DN / DESPACHO / DESPACHO COORD. ADM.</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.23</t>
   </si>
   <si>
@@ -2088,10 +1662,7 @@
     <t>SE-CGTIC-HRG</t>
   </si>
   <si>
-    <t>Humberto Javier Ruz Gonzalez / Registro y Certificación</t>
-  </si>
-  <si>
-    <t>10.178.12.0</t>
+    <t>Humberto Javier Ruz Gonzalez / Registro y CertificaciÃ³n</t>
   </si>
   <si>
     <t>10.178.12.254</t>
@@ -2106,9 +1677,6 @@
     <t>DVR DESPACHO</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.7</t>
   </si>
   <si>
@@ -2118,10 +1686,7 @@
     <t>BRN94DDF8200A9D</t>
   </si>
   <si>
-    <t>NC-9200H / DESPACHO / ASISTENTES (raymundo muñoz)</t>
-  </si>
-  <si>
-    <t>10.178.12.0</t>
+    <t>NC-9200H / DESPACHO / ASISTENTES (raymundo muÃ±oz)</t>
   </si>
   <si>
     <t>10.178.12.9</t>
@@ -2136,9 +1701,6 @@
     <t>IMP / DESPACHO</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.8</t>
   </si>
   <si>
@@ -2151,9 +1713,6 @@
     <t>IMPRESORA / Despacho - Protocolo</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.10</t>
   </si>
   <si>
@@ -2166,9 +1725,6 @@
     <t>HP Color laser Jet M553 / Despacho- Sala de Juntas</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.2</t>
   </si>
   <si>
@@ -2181,9 +1737,6 @@
     <t>Impresora / control patrimonial</t>
   </si>
   <si>
-    <t>10.178.12.0</t>
-  </si>
-  <si>
     <t>10.178.12.11</t>
   </si>
   <si>
@@ -2211,9 +1764,6 @@
     <t>Impresora asignada a primarias</t>
   </si>
   <si>
-    <t>192.168.118.0</t>
-  </si>
-  <si>
     <t>192.168.118.15</t>
   </si>
   <si>
@@ -2223,10 +1773,7 @@
     <t>Impresora Sharp mx3570</t>
   </si>
   <si>
-    <t>Impresora Sharp mx3570 comunicación social</t>
-  </si>
-  <si>
-    <t>192.168.118.0</t>
+    <t>Impresora Sharp mx3570 comunicaciÃ³n social</t>
   </si>
   <si>
     <t>192.168.119.189</t>
@@ -2238,34 +1785,19 @@
     <t>Impresora Rechum</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>192.168.118.0</t>
-  </si>
-  <si>
     <t>192.168.118.24</t>
   </si>
   <si>
-    <t>00-26-73-73-b1-ac</t>
-  </si>
-  <si>
     <t>Impresora</t>
   </si>
   <si>
-    <t>dirección de administración y finanzas-Ricoh</t>
+    <t>direcciÃ³n de administraciÃ³n y finanzas-Ricoh</t>
   </si>
   <si>
     <t>192.168.120.0</t>
   </si>
   <si>
     <t>192.168.120.241</t>
-  </si>
-  <si>
-    <t>00-26-73-c1-35-1d</t>
-  </si>
-  <si>
-    <t>Impresora despacho</t>
   </si>
   <si>
     <t>Impresora despacho</t>
@@ -2274,7 +1806,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2284,15 +1819,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2301,18 +1835,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2320,103 +1848,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2429,22 +1876,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Scope"/>
-    <tableColumn id="2" name="IP Address"/>
-    <tableColumn id="3" name="Client ID"/>
-    <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Descripción"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2489,7 +1922,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -2524,7 +1957,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -2705,2576 +2138,2564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E28" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E29" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>122</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E32" t="s">
         <v>128</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C33" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E33" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E34" t="s">
         <v>136</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D35" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C36" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C37" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D37" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>147</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D38" t="s">
         <v>148</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B39" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C39" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E39" t="s">
         <v>153</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E40" t="s">
         <v>157</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
         <v>158</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E41" t="s">
         <v>161</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
         <v>162</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C42" t="s">
         <v>163</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D42" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E42" t="s">
         <v>165</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" t="s">
         <v>167</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
         <v>170</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C44" t="s">
         <v>171</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D44" t="s">
         <v>172</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C45" t="s">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D45" t="s">
         <v>176</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E45" t="s">
         <v>177</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
         <v>178</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C46" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D46" t="s">
         <v>180</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E46" t="s">
         <v>181</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
         <v>182</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C47" t="s">
         <v>183</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D47" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E47" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
         <v>186</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C48" t="s">
         <v>187</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D48" t="s">
         <v>188</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
         <v>190</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C49" t="s">
         <v>191</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D49" t="s">
         <v>192</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E49" t="s">
         <v>193</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C50" t="s">
         <v>195</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D50" t="s">
         <v>196</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E50" t="s">
         <v>197</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>198</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D51" t="s">
         <v>200</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E51" t="s">
         <v>201</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
         <v>202</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C52" t="s">
         <v>203</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D52" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E52" t="s">
         <v>205</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
         <v>206</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C53" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D53" t="s">
         <v>208</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
         <v>210</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C54" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D54" t="s">
         <v>212</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E54" t="s">
         <v>213</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B55" t="s">
         <v>215</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C55" t="s">
         <v>216</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D55" t="s">
         <v>217</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E55" t="s">
         <v>218</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C56" t="s">
         <v>220</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D56" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E56" t="s">
         <v>222</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
         <v>223</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C57" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D57" t="s">
         <v>225</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E57" t="s">
         <v>226</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
         <v>227</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C58" t="s">
         <v>228</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D58" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E58" t="s">
         <v>230</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
         <v>231</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C59" t="s">
         <v>232</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E59" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
         <v>235</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C60" t="s">
         <v>236</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E60" t="s">
         <v>238</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C61" t="s">
         <v>240</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D61" t="s">
         <v>241</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E61" t="s">
         <v>242</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
         <v>243</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C62" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D62" t="s">
         <v>245</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E62" t="s">
         <v>246</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C63" t="s">
         <v>248</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D63" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E63" t="s">
         <v>250</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" t="s">
         <v>251</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C64" t="s">
         <v>252</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D64" t="s">
         <v>253</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E64" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
         <v>255</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C65" t="s">
         <v>256</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D65" t="s">
         <v>257</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E65" t="s">
         <v>258</v>
       </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B66" t="s">
         <v>260</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C66" t="s">
         <v>261</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D66" t="s">
         <v>262</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E66" t="s">
         <v>263</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C67" t="s">
         <v>265</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D67" t="s">
         <v>266</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E67" t="s">
         <v>267</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" t="s">
         <v>268</v>
       </c>
-      <c r="E54" t="s">
+      <c r="C68" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D68" t="s">
         <v>270</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E68" t="s">
         <v>271</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" t="s">
         <v>272</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C69" t="s">
         <v>273</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D69" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E69" t="s">
         <v>275</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" t="s">
         <v>276</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C70" t="s">
         <v>277</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D70" t="s">
         <v>278</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E70" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
         <v>280</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C71" t="s">
         <v>281</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D71" t="s">
         <v>282</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E71" t="s">
         <v>283</v>
       </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C72" t="s">
         <v>285</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D72" t="s">
         <v>286</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E72" t="s">
         <v>287</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E58" t="s">
+      <c r="B73" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C73" t="s">
         <v>290</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D73" t="s">
         <v>291</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E73" t="s">
         <v>292</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
         <v>293</v>
       </c>
-      <c r="E59" t="s">
+      <c r="C74" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E74" t="s">
         <v>296</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" t="s">
         <v>297</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C75" t="s">
         <v>298</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D75" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E75" t="s">
         <v>300</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
         <v>301</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C76" t="s">
         <v>302</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D76" t="s">
         <v>303</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E76" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
         <v>305</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C77" t="s">
         <v>306</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D77" t="s">
         <v>307</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E77" t="s">
         <v>308</v>
       </c>
-      <c r="E62" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B78" t="s">
         <v>310</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C78" t="s">
         <v>311</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D78" t="s">
         <v>312</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E78" t="s">
         <v>313</v>
       </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C79" t="s">
         <v>315</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D79" t="s">
         <v>316</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E79" t="s">
         <v>317</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B80" t="s">
         <v>318</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="E80" t="s">
         <v>320</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" t="s">
         <v>321</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" t="s">
         <v>322</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" t="s">
         <v>323</v>
       </c>
-      <c r="E65" t="s">
+      <c r="C82" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D82" t="s">
         <v>325</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E82" t="s">
         <v>326</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" t="s">
         <v>327</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C83" t="s">
+        <v>285</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" t="s">
         <v>328</v>
       </c>
-      <c r="E66" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C84" t="s">
         <v>330</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D84" t="s">
         <v>331</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E84" t="s">
         <v>332</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s">
         <v>333</v>
       </c>
-      <c r="E67" t="s">
+      <c r="C85" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D85" t="s">
         <v>335</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E85" t="s">
         <v>336</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B86" t="s">
         <v>338</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C86" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D86" t="s">
         <v>340</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E86" t="s">
         <v>341</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B87" t="s">
         <v>342</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C87" t="s">
         <v>343</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D87" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="E87" t="s">
         <v>345</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
         <v>346</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C88" t="s">
         <v>347</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D88" t="s">
         <v>348</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E88" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" t="s">
         <v>350</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C89" t="s">
         <v>351</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D89" t="s">
         <v>352</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E89" t="s">
         <v>353</v>
       </c>
-      <c r="E71" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C90" t="s">
         <v>355</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D90" t="s">
         <v>356</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E90" t="s">
         <v>357</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" t="s">
         <v>358</v>
       </c>
-      <c r="E72" t="s">
+      <c r="C91" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D91" t="s">
         <v>360</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E91" t="s">
         <v>361</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B92" t="s">
         <v>363</v>
       </c>
-      <c r="E73" t="s">
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" t="s">
         <v>365</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C93" t="s">
         <v>366</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D93" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" t="s">
         <v>367</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" t="s">
         <v>368</v>
       </c>
-      <c r="E74" t="s">
+      <c r="C94" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D94" t="s">
         <v>370</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E94" t="s">
         <v>371</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B95" t="s">
         <v>372</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C95" t="s">
         <v>373</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D95" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" t="s">
         <v>375</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C96" t="s">
         <v>376</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D96" t="s">
         <v>377</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E96" t="s">
         <v>378</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B97" t="s">
         <v>380</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C97" t="s">
         <v>381</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D97" t="s">
         <v>382</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E97" t="s">
         <v>383</v>
       </c>
-      <c r="E77" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C98" t="s">
         <v>385</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D98" t="s">
         <v>386</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" t="s">
         <v>387</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C99" t="s">
         <v>388</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D99" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="E99" t="s">
         <v>390</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" t="s">
         <v>391</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C100" t="s">
         <v>392</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D100" t="s">
         <v>393</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E100" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B101" t="s">
         <v>395</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C101" t="s">
         <v>396</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D101" t="s">
         <v>397</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E101" t="s">
         <v>398</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B102" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C102" t="s">
         <v>400</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D102" t="s">
         <v>401</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E102" t="s">
         <v>402</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" t="s">
         <v>403</v>
       </c>
-      <c r="E81" t="s">
+      <c r="C103" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D103" t="s">
         <v>405</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E103" t="s">
         <v>406</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B104" t="s">
         <v>407</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C104" t="s">
         <v>408</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D104" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="E104" t="s">
         <v>410</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" t="s">
         <v>411</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C105" t="s">
         <v>412</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D105" t="s">
         <v>413</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E105" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B106" t="s">
         <v>415</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C106" t="s">
         <v>416</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D106" t="s">
         <v>417</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E106" t="s">
         <v>418</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B107" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C107" t="s">
         <v>420</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D107" t="s">
         <v>421</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E107" t="s">
         <v>422</v>
       </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E85" t="s">
+      <c r="B108" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C108" t="s">
         <v>425</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D108" t="s">
         <v>426</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E108" t="s">
         <v>427</v>
       </c>
-      <c r="D86" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B109" t="s">
         <v>428</v>
       </c>
-      <c r="E86" t="s">
+      <c r="C109" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="D109" t="s">
         <v>430</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E109" t="s">
         <v>431</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" t="s">
         <v>432</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C110" t="s">
         <v>433</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D110" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E110" t="s">
         <v>435</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111" t="s">
         <v>436</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C111" t="s">
         <v>437</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D111" t="s">
         <v>438</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E111" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" t="s">
         <v>440</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C112" t="s">
         <v>441</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D112" t="s">
         <v>442</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B113" t="s">
         <v>443</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C113" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D113" t="s">
         <v>445</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E113" t="s">
         <v>446</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114" t="s">
         <v>447</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C114" t="s">
         <v>448</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D114" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E114" t="s">
         <v>450</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" t="s">
         <v>451</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C115" t="s">
         <v>452</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D115" t="s">
         <v>453</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E115" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" t="s">
         <v>455</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C116" t="s">
         <v>456</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D116" t="s">
         <v>457</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E116" t="s">
         <v>458</v>
       </c>
-      <c r="E92" t="s">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B117" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C117" t="s">
         <v>460</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D117" t="s">
         <v>461</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E117" t="s">
         <v>462</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E93" t="s">
+      <c r="B118" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C118" t="s">
         <v>465</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D118" t="s">
         <v>466</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E118" t="s">
         <v>467</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" t="s">
         <v>468</v>
       </c>
-      <c r="E94" t="s">
+      <c r="C119" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D119" t="s">
         <v>470</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E119" t="s">
         <v>471</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" t="s">
         <v>472</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C120" t="s">
+        <v>203</v>
+      </c>
+      <c r="D120" t="s">
         <v>473</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E120" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B121" t="s">
         <v>475</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C121" t="s">
         <v>476</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D121" t="s">
         <v>477</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E121" t="s">
         <v>478</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C122" t="s">
         <v>480</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D122" t="s">
         <v>481</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E122" t="s">
         <v>482</v>
       </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B123" t="s">
         <v>483</v>
       </c>
-      <c r="E97" t="s">
+      <c r="C123" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D123" t="s">
         <v>485</v>
       </c>
-      <c r="B98" t="s">
+      <c r="E123" t="s">
         <v>486</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" t="s">
         <v>487</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C124" t="s">
         <v>488</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D124" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E124" t="s">
         <v>490</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B125" t="s">
         <v>491</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C125" t="s">
         <v>492</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D125" t="s">
         <v>493</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E125" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B126" t="s">
         <v>495</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C126" t="s">
         <v>496</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D126" t="s">
         <v>497</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E126" t="s">
         <v>498</v>
       </c>
-      <c r="E100" t="s">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B127" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C127" t="s">
         <v>500</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D127" t="s">
         <v>501</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E127" t="s">
         <v>502</v>
       </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B128" t="s">
         <v>503</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C128" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="D128" t="s">
         <v>505</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E128" t="s">
         <v>506</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" t="s">
         <v>507</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C129" t="s">
         <v>508</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D129" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="E129" t="s">
         <v>510</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B130" t="s">
         <v>511</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C130" t="s">
         <v>512</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D130" t="s">
         <v>513</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E130" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B131" t="s">
         <v>515</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C131" t="s">
         <v>516</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D131" t="s">
         <v>517</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E131" t="s">
         <v>518</v>
       </c>
-      <c r="E104" t="s">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B132" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C132" t="s">
         <v>520</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D132" t="s">
         <v>521</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E132" t="s">
         <v>522</v>
       </c>
-      <c r="D105" t="s">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B133" t="s">
         <v>523</v>
       </c>
-      <c r="E105" t="s">
+      <c r="C133" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="D133" t="s">
         <v>525</v>
       </c>
-      <c r="B106" t="s">
+      <c r="E133" t="s">
         <v>526</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B134" t="s">
         <v>528</v>
       </c>
-      <c r="E106" t="s">
+      <c r="C134" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D134" t="s">
         <v>530</v>
       </c>
-      <c r="B107" t="s">
+      <c r="E134" t="s">
         <v>531</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" t="s">
         <v>532</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C135" t="s">
         <v>533</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D135" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="E135" t="s">
         <v>535</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B136" t="s">
         <v>536</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C136" t="s">
         <v>537</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D136" t="s">
         <v>538</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E136" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" t="s">
         <v>540</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C137" t="s">
+        <v>195</v>
+      </c>
+      <c r="D137" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" t="s">
         <v>541</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B138" t="s">
         <v>542</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C138" t="s">
         <v>543</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D138" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E138" t="s">
         <v>545</v>
       </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B139" t="s">
         <v>546</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C139" t="s">
         <v>547</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D139" t="s">
         <v>548</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E139" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B140" t="s">
         <v>550</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C140" t="s">
         <v>551</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D140" t="s">
         <v>552</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E140" t="s">
         <v>553</v>
       </c>
-      <c r="E111" t="s">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B141" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C141" t="s">
         <v>555</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D141" t="s">
         <v>556</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E141" t="s">
         <v>557</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B142" t="s">
         <v>558</v>
       </c>
-      <c r="E112" t="s">
+      <c r="C142" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="D142" t="s">
         <v>560</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E142" t="s">
         <v>561</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B143" t="s">
         <v>562</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C143" t="s">
         <v>563</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D143" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="E143" t="s">
         <v>565</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B144" t="s">
         <v>566</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C144" t="s">
         <v>567</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D144" t="s">
         <v>568</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E144" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B145" t="s">
         <v>570</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C145" t="s">
         <v>571</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D145" t="s">
         <v>572</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E145" t="s">
         <v>573</v>
       </c>
-      <c r="E115" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B146" t="s">
         <v>575</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C146" t="s">
         <v>576</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D146" t="s">
         <v>577</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E146" t="s">
         <v>578</v>
       </c>
-      <c r="E116" t="s">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B147" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C147" t="s">
         <v>580</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D147" t="s">
         <v>581</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E147" t="s">
         <v>582</v>
       </c>
-      <c r="D117" t="s">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B148" t="s">
         <v>583</v>
       </c>
-      <c r="E117" t="s">
+      <c r="C148" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="D148" t="s">
         <v>585</v>
       </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B149" t="s">
         <v>586</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C149" t="s">
+        <v>476</v>
+      </c>
+      <c r="D149" t="s">
         <v>587</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E149" t="s">
         <v>588</v>
       </c>
-      <c r="E118" t="s">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B150" t="s">
         <v>590</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C150" t="s">
+        <v>537</v>
+      </c>
+      <c r="D150" t="s">
         <v>591</v>
       </c>
-      <c r="C119" t="s">
-        <v>592</v>
-      </c>
-      <c r="D119" t="s">
-        <v>593</v>
-      </c>
-      <c r="E119" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>595</v>
-      </c>
-      <c r="B120" t="s">
-        <v>596</v>
-      </c>
-      <c r="C120" t="s">
-        <v>597</v>
-      </c>
-      <c r="D120" t="s">
-        <v>598</v>
-      </c>
-      <c r="E120" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>600</v>
-      </c>
-      <c r="B121" t="s">
-        <v>601</v>
-      </c>
-      <c r="C121" t="s">
-        <v>602</v>
-      </c>
-      <c r="D121" t="s">
-        <v>603</v>
-      </c>
-      <c r="E121" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>605</v>
-      </c>
-      <c r="B122" t="s">
-        <v>606</v>
-      </c>
-      <c r="C122" t="s">
-        <v>607</v>
-      </c>
-      <c r="D122" t="s">
-        <v>608</v>
-      </c>
-      <c r="E122" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>610</v>
-      </c>
-      <c r="B123" t="s">
-        <v>611</v>
-      </c>
-      <c r="C123" t="s">
-        <v>612</v>
-      </c>
-      <c r="D123" t="s">
-        <v>613</v>
-      </c>
-      <c r="E123" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>615</v>
-      </c>
-      <c r="B124" t="s">
-        <v>616</v>
-      </c>
-      <c r="C124" t="s">
-        <v>617</v>
-      </c>
-      <c r="D124" t="s">
-        <v>618</v>
-      </c>
-      <c r="E124" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>620</v>
-      </c>
-      <c r="B125" t="s">
-        <v>621</v>
-      </c>
-      <c r="C125" t="s">
-        <v>622</v>
-      </c>
-      <c r="D125" t="s">
-        <v>623</v>
-      </c>
-      <c r="E125" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>625</v>
-      </c>
-      <c r="B126" t="s">
-        <v>626</v>
-      </c>
-      <c r="C126" t="s">
-        <v>627</v>
-      </c>
-      <c r="D126" t="s">
-        <v>628</v>
-      </c>
-      <c r="E126" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>630</v>
-      </c>
-      <c r="B127" t="s">
-        <v>631</v>
-      </c>
-      <c r="C127" t="s">
-        <v>632</v>
-      </c>
-      <c r="D127" t="s">
-        <v>633</v>
-      </c>
-      <c r="E127" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>635</v>
-      </c>
-      <c r="B128" t="s">
-        <v>636</v>
-      </c>
-      <c r="C128" t="s">
-        <v>637</v>
-      </c>
-      <c r="D128" t="s">
-        <v>638</v>
-      </c>
-      <c r="E128" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>640</v>
-      </c>
-      <c r="B129" t="s">
-        <v>641</v>
-      </c>
-      <c r="C129" t="s">
-        <v>642</v>
-      </c>
-      <c r="D129" t="s">
-        <v>643</v>
-      </c>
-      <c r="E129" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>645</v>
-      </c>
-      <c r="B130" t="s">
-        <v>646</v>
-      </c>
-      <c r="C130" t="s">
-        <v>647</v>
-      </c>
-      <c r="D130" t="s">
-        <v>648</v>
-      </c>
-      <c r="E130" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>650</v>
-      </c>
-      <c r="B131" t="s">
-        <v>651</v>
-      </c>
-      <c r="C131" t="s">
-        <v>652</v>
-      </c>
-      <c r="D131" t="s">
-        <v>653</v>
-      </c>
-      <c r="E131" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>655</v>
-      </c>
-      <c r="B132" t="s">
-        <v>656</v>
-      </c>
-      <c r="C132" t="s">
-        <v>657</v>
-      </c>
-      <c r="D132" t="s">
-        <v>658</v>
-      </c>
-      <c r="E132" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>660</v>
-      </c>
-      <c r="B133" t="s">
-        <v>661</v>
-      </c>
-      <c r="C133" t="s">
-        <v>662</v>
-      </c>
-      <c r="D133" t="s">
-        <v>663</v>
-      </c>
-      <c r="E133" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>665</v>
-      </c>
-      <c r="B134" t="s">
-        <v>666</v>
-      </c>
-      <c r="C134" t="s">
-        <v>667</v>
-      </c>
-      <c r="D134" t="s">
-        <v>668</v>
-      </c>
-      <c r="E134" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>670</v>
-      </c>
-      <c r="B135" t="s">
-        <v>671</v>
-      </c>
-      <c r="C135" t="s">
-        <v>672</v>
-      </c>
-      <c r="D135" t="s">
-        <v>673</v>
-      </c>
-      <c r="E135" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>675</v>
-      </c>
-      <c r="B136" t="s">
-        <v>676</v>
-      </c>
-      <c r="C136" t="s">
-        <v>677</v>
-      </c>
-      <c r="D136" t="s">
-        <v>678</v>
-      </c>
-      <c r="E136" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>680</v>
-      </c>
-      <c r="B137" t="s">
-        <v>681</v>
-      </c>
-      <c r="C137" t="s">
-        <v>682</v>
-      </c>
-      <c r="D137" t="s">
-        <v>683</v>
-      </c>
-      <c r="E137" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>685</v>
-      </c>
-      <c r="B138" t="s">
-        <v>686</v>
-      </c>
-      <c r="C138" t="s">
-        <v>687</v>
-      </c>
-      <c r="D138" t="s">
-        <v>688</v>
-      </c>
-      <c r="E138" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>690</v>
-      </c>
-      <c r="B139" t="s">
-        <v>691</v>
-      </c>
-      <c r="C139" t="s">
-        <v>692</v>
-      </c>
-      <c r="D139" t="s">
-        <v>693</v>
-      </c>
-      <c r="E139" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>695</v>
-      </c>
-      <c r="B140" t="s">
-        <v>696</v>
-      </c>
-      <c r="C140" t="s">
-        <v>697</v>
-      </c>
-      <c r="D140" t="s">
-        <v>698</v>
-      </c>
-      <c r="E140" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>700</v>
-      </c>
-      <c r="B141" t="s">
-        <v>701</v>
-      </c>
-      <c r="C141" t="s">
-        <v>702</v>
-      </c>
-      <c r="D141" t="s">
-        <v>703</v>
-      </c>
-      <c r="E141" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>705</v>
-      </c>
-      <c r="B142" t="s">
-        <v>706</v>
-      </c>
-      <c r="C142" t="s">
-        <v>707</v>
-      </c>
-      <c r="D142" t="s">
-        <v>708</v>
-      </c>
-      <c r="E142" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>710</v>
-      </c>
-      <c r="B143" t="s">
-        <v>711</v>
-      </c>
-      <c r="C143" t="s">
-        <v>712</v>
-      </c>
-      <c r="D143" t="s">
-        <v>713</v>
-      </c>
-      <c r="E143" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>715</v>
-      </c>
-      <c r="B144" t="s">
-        <v>716</v>
-      </c>
-      <c r="C144" t="s">
-        <v>717</v>
-      </c>
-      <c r="D144" t="s">
-        <v>718</v>
-      </c>
-      <c r="E144" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>720</v>
-      </c>
-      <c r="B145" t="s">
-        <v>721</v>
-      </c>
-      <c r="C145" t="s">
-        <v>722</v>
-      </c>
-      <c r="D145" t="s">
-        <v>723</v>
-      </c>
-      <c r="E145" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>725</v>
-      </c>
-      <c r="B146" t="s">
-        <v>726</v>
-      </c>
-      <c r="C146" t="s">
-        <v>727</v>
-      </c>
-      <c r="D146" t="s">
-        <v>728</v>
-      </c>
-      <c r="E146" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>730</v>
-      </c>
-      <c r="B147" t="s">
-        <v>731</v>
-      </c>
-      <c r="C147" t="s">
-        <v>732</v>
-      </c>
-      <c r="D147" t="s">
-        <v>733</v>
-      </c>
-      <c r="E147" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>735</v>
-      </c>
-      <c r="B148" t="s">
-        <v>736</v>
-      </c>
-      <c r="C148" t="s">
-        <v>737</v>
-      </c>
-      <c r="D148" t="s">
-        <v>738</v>
-      </c>
-      <c r="E148" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>740</v>
-      </c>
-      <c r="B149" t="s">
-        <v>741</v>
-      </c>
-      <c r="C149" t="s">
-        <v>742</v>
-      </c>
-      <c r="D149" t="s">
-        <v>743</v>
-      </c>
-      <c r="E149" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>745</v>
-      </c>
-      <c r="B150" t="s">
-        <v>746</v>
-      </c>
-      <c r="C150" t="s">
-        <v>747</v>
-      </c>
-      <c r="D150" t="s">
-        <v>748</v>
-      </c>
       <c r="E150" t="s">
-        <v>749</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>